--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Dynacons Systems and Solutions Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Dynacons Systems and Solutions Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -600,7 +600,7 @@
         <v>22.14</v>
       </c>
       <c r="H2">
-        <v>-5.090714285714286</v>
+        <v>-5.09</v>
       </c>
       <c r="I2">
         <v>0.51</v>
@@ -630,7 +630,7 @@
         <v>-0.05</v>
       </c>
       <c r="R2">
-        <v>2.434736842105263</v>
+        <v>2.43</v>
       </c>
       <c r="S2">
         <v>0.33</v>
@@ -662,7 +662,7 @@
         <v>27.33</v>
       </c>
       <c r="E3">
-        <v>0.9438888888888888</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F3">
         <v>27.33</v>
@@ -671,7 +671,7 @@
         <v>24.2</v>
       </c>
       <c r="H3">
-        <v>-5.090714285714286</v>
+        <v>-5.09</v>
       </c>
       <c r="I3">
         <v>0.79</v>
@@ -733,7 +733,7 @@
         <v>32.67</v>
       </c>
       <c r="E4">
-        <v>0.9438888888888888</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F4">
         <v>32.67</v>
@@ -742,7 +742,7 @@
         <v>28.97</v>
       </c>
       <c r="H4">
-        <v>-5.090714285714286</v>
+        <v>-5.09</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>38.56</v>
       </c>
       <c r="H5">
-        <v>-5.090714285714286</v>
+        <v>-5.09</v>
       </c>
       <c r="I5">
         <v>1.23</v>
@@ -884,7 +884,7 @@
         <v>33.36</v>
       </c>
       <c r="H6">
-        <v>-5.090714285714286</v>
+        <v>-5.09</v>
       </c>
       <c r="I6">
         <v>1.51</v>
@@ -955,7 +955,7 @@
         <v>52.55</v>
       </c>
       <c r="H7">
-        <v>-5.090714285714286</v>
+        <v>-5.09</v>
       </c>
       <c r="I7">
         <v>1.69</v>
